--- a/results/table_a2.xlsx
+++ b/results/table_a2.xlsx
@@ -783,17 +783,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1997-2011</t>
+          <t>2003-2011</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3557</t>
+          <t>1819</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>56675</t>
+          <t>33476</t>
         </is>
       </c>
     </row>
@@ -910,440 +910,440 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1995-2005</t>
+          <t>1980-2017</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>326744</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11632</t>
+          <t>5626317</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1986-2018</t>
+          <t>1995-2005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13711</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>284907</t>
+          <t>11632</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2004-2014</t>
+          <t>1986-2018</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>13711</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>28439</t>
+          <t>284907</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1989-2018</t>
+          <t>2004-2014</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9265</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>250423</t>
+          <t>28439</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lao People’s Democratic Republic</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1982-1990</t>
+          <t>1989-2018</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2417</t>
+          <t>9265</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>40265</t>
+          <t>250423</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Lao People’s Democratic Republic</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1997-2014</t>
+          <t>1982-1990</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2161</t>
+          <t>2417</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>59174</t>
+          <t>40265</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1994-2000</t>
+          <t>1997-2014</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>2161</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17276</t>
+          <t>59174</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Republic of Moldova</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1995-2001</t>
+          <t>1994-2000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>539</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6967</t>
+          <t>17276</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Republic of Moldova</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1976-2017</t>
+          <t>1995-2001</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20615</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>266850</t>
+          <t>6967</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1996-2014</t>
+          <t>1976-2017</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21764</t>
+          <t>20615</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>181608</t>
+          <t>266850</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1995-2006</t>
+          <t>1996-2014</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>21764</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>23652</t>
+          <t>181608</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1974-2007</t>
+          <t>1995-2006</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16819</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>171373</t>
+          <t>23652</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1988-2017</t>
+          <t>1974-2007</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10184</t>
+          <t>16819</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>123315</t>
+          <t>171373</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1991-2016</t>
+          <t>1988-2017</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>37538</t>
+          <t>10184</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>427241</t>
+          <t>123315</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2000-2008</t>
+          <t>1991-2016</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>37538</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12206</t>
+          <t>427241</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1999-2008</t>
+          <t>2000-2008</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3943</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>23666</t>
+          <t>12206</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1989-1997</t>
+          <t>1999-2008</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3698</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>34979</t>
+          <t>23666</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2001-2014</t>
+          <t>1989-1997</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>6782</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>81941</t>
+          <t>34979</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1994-2008</t>
+          <t>2001-2014</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>29241</t>
+          <t>6782</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>661319</t>
+          <t>81941</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1997-2005</t>
+          <t>1994-2008</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3399</t>
+          <t>29241</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>76843</t>
+          <t>661319</t>
         </is>
       </c>
     </row>
